--- a/docss/trend/austria/E_neuron.xlsx
+++ b/docss/trend/austria/E_neuron.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\austria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\austria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -234,9 +234,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1578,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="B1:E17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,14 +1602,14 @@
       <c r="A2">
         <v>2002</v>
       </c>
-      <c r="B2" s="6">
-        <v>1.2629681779071689</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1.5806676745414734</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.97543531656265259</v>
+      <c r="B2">
+        <v>1.2629999999999999</v>
+      </c>
+      <c r="C2">
+        <v>1.581</v>
+      </c>
+      <c r="D2">
+        <v>0.97499999999999998</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -1620,14 +1617,14 @@
       <c r="A3">
         <v>2003</v>
       </c>
-      <c r="B3" s="6">
-        <v>1.2712074555456638</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1.4461027998477221</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1.1353681497275829</v>
+      <c r="B3">
+        <v>1.2709999999999999</v>
+      </c>
+      <c r="C3">
+        <v>1.446</v>
+      </c>
+      <c r="D3">
+        <v>1.135</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1635,14 +1632,14 @@
       <c r="A4">
         <v>2004</v>
       </c>
-      <c r="B4" s="6">
-        <v>1.347423454746604</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1.5540416724979877</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1.1810042131692171</v>
+      <c r="B4">
+        <v>1.347</v>
+      </c>
+      <c r="C4">
+        <v>1.554</v>
+      </c>
+      <c r="D4">
+        <v>1.181</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -1650,14 +1647,14 @@
       <c r="A5">
         <v>2005</v>
       </c>
-      <c r="B5" s="6">
-        <v>1.1555650271475315</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1.3425556551665068</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.99336417391896248</v>
+      <c r="B5">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="C5">
+        <v>1.343</v>
+      </c>
+      <c r="D5">
+        <v>0.99299999999999999</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -1665,14 +1662,14 @@
       <c r="A6">
         <v>2006</v>
       </c>
-      <c r="B6" s="6">
-        <v>1.181853998452425</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1.7643692381680012</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.74324727989733219</v>
+      <c r="B6">
+        <v>1.1819999999999999</v>
+      </c>
+      <c r="C6">
+        <v>1.764</v>
+      </c>
+      <c r="D6">
+        <v>0.74299999999999999</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -1680,14 +1677,14 @@
       <c r="A7">
         <v>2007</v>
       </c>
-      <c r="B7" s="6">
-        <v>1.3331264154985547</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1.6591838821768761</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1.0621828213334084</v>
+      <c r="B7">
+        <v>1.333</v>
+      </c>
+      <c r="C7">
+        <v>1.659</v>
+      </c>
+      <c r="D7">
+        <v>1.0620000000000001</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -1695,14 +1692,14 @@
       <c r="A8">
         <v>2008</v>
       </c>
-      <c r="B8" s="6">
-        <v>1.2011553021147847</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1.4177551828324795</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1.0152358077466488</v>
+      <c r="B8">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="C8">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="D8">
+        <v>1.0149999999999999</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -1710,14 +1707,14 @@
       <c r="A9">
         <v>2009</v>
       </c>
-      <c r="B9" s="6">
-        <v>1.3782621175050735</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1.8147609606385231</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1.0525503922253847</v>
+      <c r="B9">
+        <v>1.3779999999999999</v>
+      </c>
+      <c r="C9">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="D9">
+        <v>1.0529999999999999</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -1725,14 +1722,14 @@
       <c r="A10">
         <v>2010</v>
       </c>
-      <c r="B10" s="6">
-        <v>1.3977783415466547</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1.6653316337615252</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1.1714400667697191</v>
+      <c r="B10">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="C10">
+        <v>1.665</v>
+      </c>
+      <c r="D10">
+        <v>1.171</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -1740,14 +1737,14 @@
       <c r="A11">
         <v>2011</v>
       </c>
-      <c r="B11" s="6">
-        <v>1.3699165442958474</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1.6466460376977921</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1.1597173917107284</v>
+      <c r="B11">
+        <v>1.37</v>
+      </c>
+      <c r="C11">
+        <v>1.647</v>
+      </c>
+      <c r="D11">
+        <v>1.1599999999999999</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -1755,14 +1752,14 @@
       <c r="A12">
         <v>2012</v>
       </c>
-      <c r="B12" s="6">
-        <v>1.2954733176156878</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1.5914419759064913</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1.0549919288605452</v>
+      <c r="B12">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="C12">
+        <v>1.591</v>
+      </c>
+      <c r="D12">
+        <v>1.0549999999999999</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -1770,14 +1767,14 @@
       <c r="A13">
         <v>2013</v>
       </c>
-      <c r="B13" s="6">
-        <v>1.3190982146188617</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1.4248897358775139</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1.211816692724824</v>
+      <c r="B13">
+        <v>1.319</v>
+      </c>
+      <c r="C13">
+        <v>1.425</v>
+      </c>
+      <c r="D13">
+        <v>1.212</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -1785,14 +1782,14 @@
       <c r="A14">
         <v>2014</v>
       </c>
-      <c r="B14" s="6">
-        <v>1.3776621939614415</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1.3945972751826048</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1.3822640869766474</v>
+      <c r="B14">
+        <v>1.3779999999999999</v>
+      </c>
+      <c r="C14">
+        <v>1.395</v>
+      </c>
+      <c r="D14">
+        <v>1.3819999999999999</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -1814,6 +1811,71 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
